--- a/artfynd/A 59126-2025 artfynd.xlsx
+++ b/artfynd/A 59126-2025 artfynd.xlsx
@@ -683,12 +683,7 @@
         <v>94884775</v>
       </c>
       <c r="B2" t="n">
-        <v>57576</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>58745</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -718,19 +713,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Hulebäck, Torsås, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>559941.4020111938</v>
+        <v>559941</v>
       </c>
       <c r="R2" t="n">
-        <v>6257482.460904323</v>
+        <v>6257482</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,27 +757,18 @@
           <t>2021-07-14</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2021-07-14</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 59126-2025 artfynd.xlsx
+++ b/artfynd/A 59126-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>94884775</v>
       </c>
       <c r="B2" t="n">
-        <v>58745</v>
+        <v>58746</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
